--- a/dataset/hair_salons/train_test/train_test.xlsx
+++ b/dataset/hair_salons/train_test/train_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smina\PycharmProject\surprising-aspects\dataset\hair_salons\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smina\PycharmProject\surprising-aspects\dataset\hair_salons\train_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281CC014-882A-43B8-AEBB-8F0155F7C03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AAB0C7-6400-4CBE-9564-A0BEAA3B06BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6681,7 +6681,7 @@
   <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
